--- a/biology/Zoologie/Échenilleur_de_Boyer/Échenilleur_de_Boyer.xlsx
+++ b/biology/Zoologie/Échenilleur_de_Boyer/Échenilleur_de_Boyer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_de_Boyer</t>
+          <t>Échenilleur_de_Boyer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Échenilleur de Boyer (Coracina boyeri) est une espèce de passereau de la famille des Campephagidae.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_de_Boyer</t>
+          <t>Échenilleur_de_Boyer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est endémique de Nouvelle-Guinée.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_de_Boyer</t>
+          <t>Échenilleur_de_Boyer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il habite les forêts humides tropicales et subtropicales en plaine et les mangroves.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89chenilleur_de_Boyer</t>
+          <t>Échenilleur_de_Boyer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,10 +589,12 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Selon Alan P. Peterson, il en existe deux sous-espèces :
-Coracina boyeri boyeri (Gray,GR) 1846 : échenilleur à lores blancs[1] ;
+Coracina boyeri boyeri (Gray,GR) 1846 : échenilleur à lores blancs ;
 Coracina boyeri subalaris (Sharpe) 1878 : échenilleur à lores gris.</t>
         </is>
       </c>
